--- a/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_02_end.xlsx
+++ b/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_02_end.xlsx
@@ -1316,7 +1316,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="A-Zone Prisoner A"]Just asked for who exactly without even thinking. And he said, for all those convicts who “escaped.”
+    <t xml:space="preserve">[name="A-Zone Prisoner A"]Just asked for who exactly without even thinking. And he said, for all those convicts who 'escaped.'
 </t>
   </si>
   <si>
@@ -1432,7 +1432,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Robin"]You're “Generous J?”
+    <t xml:space="preserve">[name="Robin"]You're 'Generous J?'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_02_end.xlsx
+++ b/story/Activity Story 活动剧情/act15d0 Mansfield Break 孤岛风云 孤島激震/level_act15d0_02_end.xlsx
@@ -1920,7 +1920,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="로빈"]당신이 바로 '제너러스 J'?
+    <t xml:space="preserve">[name="로빈"]당신이 바로 '관대한 J'?
 </t>
   </si>
   <si>
